--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -1292,55 +1292,151 @@
           <t>Tomayapo</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
       <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
+      <c r="AX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
       <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1802,22 +1898,54 @@
           <t>Persib Bandung</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -2131,22 +2259,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n">
         <v>7.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="J14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="K14" t="n">
         <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2158,43 +2286,43 @@
         <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="R14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="S14" t="n">
         <v>1.17</v>
       </c>
       <c r="T14" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X14" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
       </c>
       <c r="AA14" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AB14" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC14" t="n">
         <v>29</v>
@@ -2203,71 +2331,71 @@
         <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF14" t="n">
         <v>120</v>
       </c>
       <c r="AG14" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AJ14" t="n">
         <v>12.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AL14" t="n">
         <v>10.75</v>
       </c>
       <c r="AM14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AU14" t="n">
         <v>10.25</v>
       </c>
       <c r="AV14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
         <v>3.35</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="BB14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -2324,7 +2452,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -2485,16 +2613,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>1.91</v>
@@ -2509,22 +2637,22 @@
         <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
@@ -2564,7 +2692,7 @@
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2585,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
@@ -2600,7 +2728,7 @@
         <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU16" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,7 +1076,7 @@
         <v>301</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1114,10 +1114,10 @@
         <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.4</v>
@@ -1219,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1293,97 +1293,97 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.6</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.7</v>
-      </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="W5" t="n">
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
         <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
@@ -1395,16 +1395,16 @@
         <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
         <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1420,16 +1420,16 @@
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
@@ -1470,55 +1470,151 @@
           <t>Wilstermann</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
       <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
+      <c r="AX6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>201</v>
+      </c>
       <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1552,55 +1648,153 @@
           <t>Bolivar</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>23</v>
+      </c>
+      <c r="X7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
       <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1634,55 +1828,151 @@
           <t>SA Bulo Bulo</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>21</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
+      <c r="AX8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>251</v>
+      </c>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1899,86 +2189,150 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.72</v>
+        <v>4.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="J10" t="n">
-        <v>5.17</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
+        <v>1.87</v>
+      </c>
+      <c r="W10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>65</v>
+      </c>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
+      <c r="AX10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>200</v>
+      </c>
       <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -2012,39 +2366,105 @@
           <t>Kelantan DNFC</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>50</v>
+      </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
@@ -2094,39 +2514,105 @@
           <t>Penang</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>30</v>
+      </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
@@ -2230,7 +2716,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MFp57qx1</t>
+          <t>rsVsDxWq</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2240,169 +2726,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Crvena zvezda</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>2.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
         <v>9.5</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>110</v>
-      </c>
-      <c r="X14" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AN14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO14" t="n">
         <v>21</v>
       </c>
-      <c r="AE14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>150</v>
-      </c>
       <c r="AP14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
       <c r="AT14" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW14" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>81</v>
+      </c>
       <c r="AX14" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>7.9</v>
+        <v>34</v>
       </c>
       <c r="BB14" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
-        <v>150</v>
-      </c>
-      <c r="BD14" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rsVsDxWq</t>
+          <t>0r3gVyhS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2412,7 +2908,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2422,160 +2918,158 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W15" t="n">
-        <v>11</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>21</v>
       </c>
-      <c r="Y15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>41</v>
-      </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>15</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
         <v>51</v>
       </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
         <v>15</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>21</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
       </c>
       <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
         <v>81</v>
       </c>
-      <c r="AR15" t="n">
-        <v>101</v>
-      </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="BA15" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -2584,7 +3078,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0r3gVyhS</t>
+          <t>ERvCIb8M</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2604,31 +3098,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.13</v>
@@ -2637,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q16" t="n">
         <v>2.7</v>
@@ -2655,25 +3149,25 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
@@ -2685,47 +3179,47 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
         <v>41</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AN16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
         <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -2740,204 +3234,24 @@
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
         <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
         <v>351</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ERvCIb8M</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>18/12/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Gijon</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD17" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
         <v>2.05</v>
@@ -1305,46 +1305,46 @@
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>12.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.14</v>
+        <v>3.32</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="V5" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
@@ -1356,13 +1356,13 @@
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1374,7 +1374,7 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1389,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>5.5</v>
@@ -1407,16 +1407,16 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
@@ -1429,13 +1429,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1501,34 +1501,34 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>17</v>
@@ -1552,31 +1552,31 @@
         <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1588,7 +1588,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1601,7 +1601,7 @@
         <v>5.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>29</v>
@@ -1649,28 +1649,28 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="K7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O7" t="n">
         <v>1.13</v>
@@ -1685,16 +1685,16 @@
         <v>2.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
         <v>23</v>
@@ -1715,10 +1715,10 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
         <v>11</v>
@@ -1748,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO7" t="n">
         <v>29</v>
@@ -1760,13 +1760,13 @@
         <v>101</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1781,13 +1781,13 @@
         <v>3.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
         <v>34</v>
@@ -2016,19 +2016,19 @@
         <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2043,10 +2043,10 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -2094,7 +2094,7 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
@@ -2112,7 +2112,7 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2124,7 +2124,7 @@
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2189,149 +2189,149 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.55</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L10" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T10" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="U10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.75</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.87</v>
-      </c>
       <c r="W10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>13</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AP10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AR10" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AS10" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.82</v>
+        <v>2.55</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AV10" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD10" t="inlineStr"/>
     </row>
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.5</v>
+        <v>6.39</v>
       </c>
       <c r="J11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="L11" t="n">
-        <v>6.19</v>
+        <v>6.03</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -2409,40 +2409,40 @@
         <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X11" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="n">
         <v>101</v>
@@ -2451,10 +2451,10 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
@@ -2463,7 +2463,7 @@
         <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
@@ -2515,22 +2515,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.74</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="n">
         <v>2.21</v>
       </c>
       <c r="L12" t="n">
-        <v>4.36</v>
+        <v>4.52</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2557,22 +2557,22 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y12" t="n">
         <v>6.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
@@ -2596,19 +2596,19 @@
         <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM12" t="n">
         <v>30</v>
@@ -2716,7 +2716,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rsVsDxWq</t>
+          <t>MFp57qx1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2726,179 +2726,169 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Crvena zvezda</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>9.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>24</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>4.15</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W14" t="n">
+        <v>350</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>300</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>10</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W14" t="n">
-        <v>11</v>
-      </c>
-      <c r="X14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="AY14" t="n">
-        <v>10</v>
+        <v>3.85</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>34</v>
+        <v>5.8</v>
       </c>
       <c r="BB14" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="BC14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0r3gVyhS</t>
+          <t>rsVsDxWq</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2908,7 +2898,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2918,158 +2908,160 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.4</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
         <v>6</v>
       </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
       </c>
       <c r="AQ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
         <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>81</v>
       </c>
       <c r="AW15" t="n">
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>21</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="BA15" t="n">
         <v>34</v>
       </c>
-      <c r="BA15" t="n">
-        <v>81</v>
-      </c>
       <c r="BB15" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BC15" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3078,7 +3070,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ERvCIb8M</t>
+          <t>0r3gVyhS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3098,43 +3090,43 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
         <v>2.7</v>
@@ -3149,25 +3141,25 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
@@ -3179,47 +3171,47 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
         <v>29</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>34</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -3234,24 +3226,204 @@
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="n">
         <v>351</v>
       </c>
       <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ERvCIb8M</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18/12/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD17" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1296,19 +1296,19 @@
         <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1317,10 +1317,10 @@
         <v>12.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q5" t="n">
         <v>1.65</v>
@@ -1335,19 +1335,19 @@
         <v>3.32</v>
       </c>
       <c r="U5" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
@@ -1371,13 +1371,13 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1395,41 +1395,41 @@
         <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
@@ -1471,28 +1471,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1501,10 +1501,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1513,31 +1513,31 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1555,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1573,13 +1573,13 @@
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1607,10 +1607,10 @@
         <v>29</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
         <v>201</v>
@@ -1649,40 +1649,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.22</v>
@@ -1697,7 +1697,7 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X7" t="n">
         <v>41</v>
@@ -1706,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="n">
         <v>41</v>
@@ -1715,13 +1715,13 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1739,19 +1739,19 @@
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1784,13 +1784,13 @@
         <v>6.5</v>
       </c>
       <c r="AZ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA7" t="n">
         <v>15</v>
       </c>
-      <c r="BA7" t="n">
-        <v>17</v>
-      </c>
       <c r="BB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -2745,19 +2745,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J14" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.21</v>
@@ -2784,34 +2784,34 @@
         <v>1.11</v>
       </c>
       <c r="T14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="V14" t="n">
         <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Y14" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD14" t="n">
         <v>40</v>
@@ -2820,68 +2820,68 @@
         <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG14" t="n">
         <v>800</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AP14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AY14" t="n">
         <v>3.85</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BB14" t="n">
         <v>22</v>
       </c>
       <c r="BC14" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
@@ -2932,7 +2932,7 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2995,16 +2995,16 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3019,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
@@ -3031,7 +3031,7 @@
         <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
         <v>2.75</v>
@@ -3046,7 +3046,7 @@
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY15" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -944,7 +944,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -971,10 +971,10 @@
         <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -983,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1010,7 +1010,7 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1019,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>29</v>
@@ -1028,10 +1028,10 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1040,7 +1040,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>301</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1141,16 +1141,16 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1174,13 +1174,13 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1192,13 +1192,13 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>13</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1210,13 +1210,13 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1225,10 +1225,10 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1243,13 +1243,13 @@
         <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>101</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1335,28 +1335,28 @@
         <v>3.32</v>
       </c>
       <c r="U5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
+        <v>15</v>
+      </c>
+      <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
         <v>13</v>
       </c>
-      <c r="X5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
       <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB5" t="n">
         <v>34</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>15</v>
@@ -1371,68 +1371,68 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB5" t="n">
         <v>41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>51</v>
       </c>
       <c r="BC5" t="n">
         <v>101</v>
@@ -1471,64 +1471,64 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1537,49 +1537,49 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1588,32 +1588,32 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="inlineStr"/>
     </row>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
@@ -1667,10 +1667,10 @@
         <v>1.8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O7" t="n">
         <v>1.11</v>
@@ -1679,10 +1679,10 @@
         <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.22</v>
@@ -1715,7 +1715,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
@@ -1727,13 +1727,13 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
@@ -1745,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>9</v>
@@ -1754,7 +1754,7 @@
         <v>34</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
         <v>101</v>
@@ -1784,13 +1784,13 @@
         <v>6.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA7" t="n">
         <v>15</v>
       </c>
       <c r="BB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1847,10 +1847,10 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O8" t="n">
         <v>1.1</v>
@@ -2025,10 +2025,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2037,10 +2037,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2189,64 +2189,60 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10.5</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="T10" t="n">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
@@ -2255,13 +2251,13 @@
         <v>55</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>80</v>
@@ -2273,22 +2269,22 @@
         <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AL10" t="n">
         <v>13</v>
       </c>
       <c r="AM10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AO10" t="n">
         <v>30</v>
@@ -2309,23 +2305,23 @@
         <v>2.55</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV10" t="n">
         <v>75</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB10" t="n">
         <v>60</v>
@@ -2367,120 +2363,146 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>6.39</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="K11" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
+        <v>4.6</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>4.2</v>
+        <v>3.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="V11" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="W11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.800000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="AB11" t="n">
         <v>19</v>
       </c>
       <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE11" t="n">
         <v>13</v>
       </c>
-      <c r="AD11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14</v>
-      </c>
       <c r="AF11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>30</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
+      <c r="BA11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>400</v>
+      </c>
       <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2515,22 +2537,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="K12" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.52</v>
+        <v>4.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2542,13 +2564,13 @@
         <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2557,78 +2579,108 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="V12" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="W12" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="X12" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR12" t="n">
         <v>50</v>
       </c>
-      <c r="AG12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AS12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>28</v>
       </c>
-      <c r="AM12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
+      <c r="BA12" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>350</v>
+      </c>
       <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2745,22 +2797,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2778,28 +2830,28 @@
         <v>1.14</v>
       </c>
       <c r="R14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="T14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
         <v>175</v>
       </c>
       <c r="X14" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
@@ -2808,19 +2860,19 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AC14" t="n">
         <v>40</v>
       </c>
       <c r="AD14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AG14" t="n">
         <v>800</v>
@@ -2832,53 +2884,53 @@
         <v>10.25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AL14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AU14" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AV14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="BB14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC14" t="n">
         <v>175</v>
@@ -2917,19 +2969,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>2.5</v>
@@ -2938,19 +2990,19 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -2983,7 +3035,7 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -2995,13 +3047,13 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
@@ -3013,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>6</v>
@@ -3102,13 +3154,13 @@
         <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>1.91</v>
@@ -3117,10 +3169,10 @@
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>
@@ -3141,13 +3193,13 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
         <v>9.5</v>
@@ -3171,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
@@ -3199,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
@@ -3232,7 +3284,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -1117,7 +1117,7 @@
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1135,22 +1135,22 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
         <v>9</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1183,22 +1183,22 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1225,10 +1225,10 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC4" t="n">
         <v>201</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1341,22 +1341,22 @@
         <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>41</v>
       </c>
       <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
         <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>15</v>
@@ -1374,37 +1374,37 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
         <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
         <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1420,19 +1420,19 @@
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC5" t="n">
         <v>101</v>
@@ -1471,28 +1471,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1513,37 +1513,37 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1555,28 +1555,28 @@
         <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>
@@ -1585,29 +1585,29 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
@@ -1649,16 +1649,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="J7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
         <v>2.75</v>
@@ -1673,16 +1673,16 @@
         <v>21</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.22</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
         <v>81</v>
@@ -1718,25 +1718,25 @@
         <v>21</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
       </c>
       <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
@@ -1745,16 +1745,16 @@
         <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO7" t="n">
         <v>34</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>101</v>
@@ -1787,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
         <v>34</v>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>1.53</v>
@@ -1844,76 +1844,76 @@
         <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R8" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
       </c>
       <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
         <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>21</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
@@ -1928,13 +1928,13 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ8" t="n">
         <v>11</v>
@@ -1946,7 +1946,7 @@
         <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
@@ -1971,7 +1971,7 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -2013,34 +2013,34 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2049,10 +2049,10 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2061,7 +2061,7 @@
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>19</v>
@@ -2073,13 +2073,13 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
@@ -2094,16 +2094,16 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -2121,16 +2121,16 @@
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
         <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2139,10 +2139,10 @@
         <v>5.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
@@ -2189,22 +2189,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
         <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -2221,10 +2221,10 @@
         <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -2245,19 +2245,19 @@
         <v>100</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
         <v>55</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD10" t="n">
         <v>7.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
         <v>80</v>
@@ -2275,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>13</v>
@@ -2284,25 +2284,25 @@
         <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="n">
         <v>35</v>
       </c>
       <c r="AQ10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR10" t="n">
         <v>200</v>
       </c>
-      <c r="AR10" t="n">
-        <v>250</v>
-      </c>
       <c r="AS10" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU10" t="n">
         <v>7.7</v>
@@ -2315,13 +2315,13 @@
         <v>3.4</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BA10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB10" t="n">
         <v>60</v>
@@ -2366,7 +2366,7 @@
         <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
         <v>4.4</v>
@@ -2375,7 +2375,7 @@
         <v>2.12</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L11" t="n">
         <v>4.6</v>
@@ -2389,10 +2389,10 @@
         <v>3.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2407,10 +2407,10 @@
         <v>2.08</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -2422,25 +2422,25 @@
         <v>10.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG11" t="n">
         <v>300</v>
       </c>
       <c r="AH11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>21</v>
@@ -2461,13 +2461,13 @@
         <v>3.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AP11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>50</v>
@@ -2476,32 +2476,32 @@
         <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
         <v>6.3</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
         <v>150</v>
       </c>
       <c r="BB11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC11" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD11" t="inlineStr"/>
     </row>
@@ -2543,7 +2543,7 @@
         <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>2.18</v>
@@ -2561,10 +2561,10 @@
         <v>11.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>3.82</v>
+        <v>3.84</v>
       </c>
       <c r="Q12" t="n">
         <v>1.65</v>
@@ -2579,22 +2579,22 @@
         <v>3.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X12" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Y12" t="n">
         <v>6.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA12" t="n">
         <v>10.5</v>
@@ -2606,7 +2606,7 @@
         <v>11.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE12" t="n">
         <v>11.75</v>
@@ -2618,13 +2618,13 @@
         <v>250</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>55</v>
@@ -2633,10 +2633,10 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO12" t="n">
         <v>8</v>
@@ -2645,7 +2645,7 @@
         <v>16</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2667,7 +2667,7 @@
         <v>6.3</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2679,7 +2679,7 @@
         <v>150</v>
       </c>
       <c r="BC12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>
@@ -2797,22 +2797,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2827,113 +2827,113 @@
         <v>8.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="T14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="W14" t="n">
         <v>175</v>
       </c>
       <c r="X14" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Y14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AC14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD14" t="n">
         <v>40</v>
       </c>
-      <c r="AD14" t="n">
-        <v>45</v>
-      </c>
       <c r="AE14" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AG14" t="n">
         <v>800</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP14" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AU14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BB14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC14" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -2975,7 +2975,7 @@
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
@@ -2987,10 +2987,10 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -3053,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
@@ -3083,7 +3083,7 @@
         <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>2.75</v>
@@ -3151,19 +3151,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
@@ -3175,16 +3175,16 @@
         <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
         <v>1.62</v>
@@ -3205,10 +3205,10 @@
         <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3254,16 +3254,16 @@
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -3331,28 +3331,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
         <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>1.83</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.57</v>
@@ -3382,22 +3382,22 @@
         <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
       </c>
       <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
         <v>26</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
@@ -3410,28 +3410,28 @@
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
         <v>34</v>
@@ -3458,10 +3458,10 @@
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -807,7 +807,7 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -849,10 +849,10 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -876,10 +876,10 @@
         <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1353,7 +1353,7 @@
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1380,10 +1380,10 @@
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
@@ -1395,7 +1395,7 @@
         <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
@@ -1423,7 +1423,7 @@
         <v>4.33</v>
       </c>
       <c r="AY5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
@@ -1652,10 +1652,10 @@
         <v>7.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
@@ -1673,16 +1673,16 @@
         <v>21</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.22</v>
@@ -1697,7 +1697,7 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X7" t="n">
         <v>41</v>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
@@ -1748,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
         <v>34</v>
@@ -1784,10 +1784,10 @@
         <v>6.5</v>
       </c>
       <c r="AZ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA7" t="n">
         <v>15</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>17</v>
       </c>
       <c r="BB7" t="n">
         <v>34</v>
@@ -1829,64 +1829,64 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="I8" t="n">
         <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="T8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
@@ -1895,10 +1895,10 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1910,16 +1910,16 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="n">
         <v>67</v>
@@ -1928,16 +1928,16 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>5.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
@@ -1946,17 +1946,17 @@
         <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -1965,13 +1965,13 @@
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -2363,42 +2363,46 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>4.35</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12.5</v>
+      </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T11" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="U11" t="n">
         <v>1.71</v>
@@ -2410,25 +2414,25 @@
         <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
         <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE11" t="n">
         <v>12.5</v>
@@ -2440,34 +2444,34 @@
         <v>300</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>50</v>
@@ -2476,26 +2480,26 @@
         <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV11" t="n">
         <v>60</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB11" t="n">
         <v>150</v>
@@ -2537,22 +2541,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
         <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L12" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2564,7 +2568,7 @@
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="Q12" t="n">
         <v>1.65</v>
@@ -2573,43 +2577,43 @@
         <v>1.98</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T12" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="W12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X12" t="n">
         <v>7.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>45</v>
@@ -2621,40 +2625,40 @@
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU12" t="n">
         <v>7.1</v>
@@ -2664,22 +2668,22 @@
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BA12" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB12" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>
@@ -2797,22 +2801,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2827,110 +2831,110 @@
         <v>8.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="R14" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="T14" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="X14" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AC14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD14" t="n">
         <v>45</v>
       </c>
-      <c r="AD14" t="n">
-        <v>40</v>
-      </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
         <v>250</v>
       </c>
       <c r="AG14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM14" t="n">
         <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AP14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AU14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AV14" t="n">
         <v>110</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AZ14" t="n">
         <v>14.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="BB14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC14" t="n">
         <v>150</v>
@@ -2975,40 +2979,40 @@
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
         <v>1.83</v>
@@ -3035,7 +3039,7 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3047,7 +3051,7 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
@@ -3056,16 +3060,16 @@
         <v>8.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
         <v>6</v>
@@ -3083,13 +3087,13 @@
         <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3163,28 +3167,28 @@
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
         <v>1.62</v>
@@ -3193,22 +3197,22 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
         <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3223,7 +3227,7 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
@@ -3254,16 +3258,16 @@
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -3284,7 +3288,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA16" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -753,22 +753,22 @@
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -777,16 +777,16 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -807,16 +807,16 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -849,10 +849,10 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
         <v>21</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -864,7 +864,7 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,16 +873,16 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
         <v>29</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -938,7 +938,7 @@
         <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -953,10 +953,10 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.63</v>
@@ -971,16 +971,16 @@
         <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1076,7 +1076,7 @@
         <v>301</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1114,10 +1114,10 @@
         <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1126,7 +1126,7 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1153,16 +1153,16 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1198,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1207,7 +1207,7 @@
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1317,10 +1317,10 @@
         <v>12.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q5" t="n">
         <v>1.67</v>
@@ -1353,7 +1353,7 @@
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1365,7 +1365,7 @@
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1374,16 +1374,16 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>15</v>
@@ -1392,10 +1392,10 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
@@ -1420,10 +1420,10 @@
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
@@ -1471,40 +1471,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1513,10 +1513,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1570,13 +1570,13 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>
@@ -1585,32 +1585,32 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
       </c>
       <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
         <v>126</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>301</v>
@@ -1649,16 +1649,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.75</v>
@@ -1667,22 +1667,22 @@
         <v>1.8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.22</v>
@@ -1709,7 +1709,7 @@
         <v>81</v>
       </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1790,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="BB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H8" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="K8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1853,31 +1853,31 @@
         <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>7.5</v>
@@ -1886,92 +1886,92 @@
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
         <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
         <v>201</v>
       </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>126</v>
-      </c>
       <c r="AL8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="n">
         <v>67</v>
       </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -2007,16 +2007,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
@@ -2031,22 +2031,22 @@
         <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
         <v>2.2</v>
@@ -2055,7 +2055,7 @@
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
@@ -2082,13 +2082,13 @@
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
         <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2115,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
         <v>81</v>
@@ -2124,7 +2124,7 @@
         <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2189,19 +2189,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
         <v>5.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L10" t="n">
         <v>2.18</v>
@@ -2209,34 +2209,34 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
         <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
         <v>16.5</v>
@@ -2245,7 +2245,7 @@
         <v>100</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
         <v>55</v>
@@ -2257,19 +2257,19 @@
         <v>7.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
@@ -2281,31 +2281,31 @@
         <v>13</v>
       </c>
       <c r="AM10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP10" t="n">
         <v>35</v>
       </c>
       <c r="AQ10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR10" t="n">
         <v>200</v>
       </c>
       <c r="AS10" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT10" t="n">
         <v>2.52</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV10" t="n">
         <v>75</v>
@@ -2363,67 +2363,67 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L11" t="n">
         <v>4.1</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.35</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>12.5</v>
+        <v>11.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>3.85</v>
+        <v>3.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="V11" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X11" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>18.5</v>
@@ -2432,80 +2432,80 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>45</v>
       </c>
       <c r="AG11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
         <v>29</v>
       </c>
-      <c r="AM11" t="n">
-        <v>30</v>
-      </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS11" t="n">
         <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV11" t="n">
         <v>60</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB11" t="n">
         <v>150</v>
       </c>
       <c r="BC11" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD11" t="inlineStr"/>
     </row>
@@ -2804,19 +2804,19 @@
         <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2825,37 +2825,37 @@
         <v>9.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P14" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="R14" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="T14" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="W14" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="X14" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
@@ -2864,80 +2864,80 @@
         <v>900</v>
       </c>
       <c r="AB14" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AC14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AD14" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>7.9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>8.5</v>
+        <v>6.1</v>
       </c>
       <c r="AL14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>250</v>
       </c>
       <c r="AP14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="AU14" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AV14" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA14" t="n">
         <v>5.7</v>
       </c>
       <c r="BB14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BC14" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -2994,7 +2994,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3006,7 +3006,7 @@
         <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3066,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
@@ -3167,28 +3167,28 @@
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
         <v>1.62</v>
@@ -3197,22 +3197,22 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3221,7 +3221,7 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3252,22 +3252,22 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -3288,7 +3288,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
         <v>81</v>
@@ -3359,16 +3359,16 @@
         <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
         <v>1.62</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.5</v>
@@ -879,13 +879,13 @@
         <v>4.33</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
@@ -894,7 +894,7 @@
         <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -971,25 +971,25 @@
         <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1010,7 +1010,7 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>126</v>
@@ -1073,7 +1073,7 @@
         <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1293,79 +1293,79 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T5" t="n">
-        <v>3.32</v>
+        <v>3.26</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
+        <v>11</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
         <v>13</v>
       </c>
-      <c r="X5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1374,31 +1374,31 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9</v>
       </c>
-      <c r="AI5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
         <v>17</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>15</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>21</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
@@ -1418,24 +1418,26 @@
       <c r="AV5" t="n">
         <v>41</v>
       </c>
-      <c r="AW5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>500</v>
+      </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
       </c>
       <c r="BC5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1471,22 +1473,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1495,16 +1497,16 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1513,10 +1515,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1570,50 +1572,50 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
         <v>101</v>
       </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
       <c r="BC6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD6" t="inlineStr"/>
     </row>
@@ -1649,46 +1651,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1697,28 +1699,28 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
         <v>41</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1730,43 +1732,43 @@
         <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1781,16 +1783,16 @@
         <v>3.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1829,10 +1831,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I8" t="n">
         <v>15</v>
@@ -1847,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O8" t="n">
         <v>1.1</v>
@@ -1859,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S8" t="n">
         <v>1.2</v>
@@ -1889,7 +1891,7 @@
         <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1898,16 +1900,16 @@
         <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
@@ -1956,7 +1958,7 @@
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>51</v>
@@ -2031,16 +2033,16 @@
         <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.62</v>
@@ -2189,10 +2191,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
         <v>1.6</v>
@@ -2201,24 +2203,28 @@
         <v>5.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+        <v>2.15</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S10" t="n">
         <v>1.39</v>
@@ -2227,34 +2233,34 @@
         <v>2.55</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>14</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE10" t="n">
         <v>16</v>
@@ -2266,65 +2272,65 @@
         <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
         <v>6.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AR10" t="n">
         <v>200</v>
       </c>
       <c r="AS10" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU10" t="n">
         <v>7.6</v>
       </c>
       <c r="AV10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
         <v>3.4</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BC10" t="n">
         <v>250</v>
@@ -2363,34 +2369,30 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="K11" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11.8</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>3.74</v>
+        <v>3.82</v>
       </c>
       <c r="Q11" t="n">
         <v>1.7</v>
@@ -2405,107 +2407,107 @@
         <v>3.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="W11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X11" t="n">
         <v>6.9</v>
       </c>
-      <c r="X11" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Y11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>12</v>
       </c>
-      <c r="AF11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AK11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS11" t="n">
         <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB11" t="n">
         <v>150</v>
       </c>
       <c r="BC11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD11" t="inlineStr"/>
     </row>
@@ -2568,7 +2570,7 @@
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="Q12" t="n">
         <v>1.65</v>
@@ -2583,10 +2585,10 @@
         <v>3.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V12" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="W12" t="n">
         <v>6.7</v>
@@ -2801,22 +2803,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H14" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="K14" t="n">
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2828,116 +2830,116 @@
         <v>1.05</v>
       </c>
       <c r="P14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="T14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="U14" t="n">
-        <v>2.92</v>
+        <v>2.55</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
+        <v>120</v>
+      </c>
+      <c r="X14" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y14" t="n">
         <v>150</v>
-      </c>
-      <c r="X14" t="n">
-        <v>600</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>175</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
       </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AB14" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="AC14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AU14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="BB14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BC14" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -2973,22 +2975,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -3027,7 +3029,7 @@
         <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
         <v>41</v>
@@ -3045,7 +3047,7 @@
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
@@ -3060,7 +3062,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3078,7 +3080,7 @@
         <v>23</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
         <v>81</v>
@@ -3155,13 +3157,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
@@ -3170,25 +3172,25 @@
         <v>1.83</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
         <v>1.62</v>
@@ -3197,10 +3199,10 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>6</v>
@@ -3221,7 +3223,7 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3243,7 +3245,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -3267,7 +3269,7 @@
         <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -3288,10 +3290,10 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
@@ -765,10 +765,10 @@
         <v>2.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
         <v>3.75</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -1040,7 +1040,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
         <v>301</v>
@@ -1073,7 +1073,7 @@
         <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>4.33</v>
@@ -1168,7 +1168,7 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1246,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>67</v>
@@ -1255,7 +1255,7 @@
         <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1311,16 +1311,16 @@
         <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>11.8</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q5" t="n">
         <v>1.7</v>
@@ -1329,16 +1329,16 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T5" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="U5" t="n">
         <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1395,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1503,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1515,10 +1515,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1572,19 +1572,19 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1593,29 +1593,29 @@
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="inlineStr"/>
     </row>
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
         <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
         <v>1.14</v>
@@ -1681,16 +1681,16 @@
         <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1699,13 +1699,13 @@
         <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
         <v>67</v>
@@ -1717,10 +1717,10 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1729,10 +1729,10 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
         <v>9</v>
@@ -1741,19 +1741,19 @@
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
         <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1762,13 +1762,13 @@
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1783,19 +1783,19 @@
         <v>3.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD7" t="inlineStr"/>
     </row>
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1873,28 +1873,28 @@
         <v>4.33</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>7.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>21</v>
@@ -1903,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1915,31 +1915,31 @@
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM8" t="n">
         <v>81</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>67</v>
       </c>
       <c r="AN8" t="n">
         <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
@@ -1951,7 +1951,7 @@
         <v>4.33</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1964,16 +1964,16 @@
         <v>51</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB8" t="n">
         <v>251</v>
       </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
       <c r="BC8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -2027,10 +2027,10 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L10" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9.42</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
         <v>1.39</v>
@@ -2236,34 +2236,34 @@
         <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W10" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
         <v>75</v>
@@ -2272,43 +2272,43 @@
         <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AJ10" t="n">
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS10" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU10" t="n">
         <v>7.6</v>
@@ -2318,16 +2318,16 @@
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>55</v>
@@ -2369,30 +2369,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>5.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.9</v>
+      </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="Q11" t="n">
         <v>1.7</v>
@@ -2404,110 +2408,110 @@
         <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="X11" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.25</v>
+        <v>7.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL11" t="n">
         <v>50</v>
       </c>
-      <c r="AG11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>50</v>
       </c>
-      <c r="AL11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>32</v>
-      </c>
       <c r="AN11" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AP11" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AR11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT11" t="n">
         <v>2.95</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AV11" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="AY11" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="BA11" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="BB11" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="BC11" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BD11" t="inlineStr"/>
     </row>
@@ -2543,149 +2547,149 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="L12" t="n">
         <v>5.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>11.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>3.88</v>
+        <v>4.17</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T12" t="n">
         <v>3.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="W12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X12" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
         <v>10</v>
       </c>
-      <c r="AB12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD12" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AF12" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AG12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
         <v>37</v>
       </c>
       <c r="AM12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AR12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>29</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>32</v>
-      </c>
       <c r="BA12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB12" t="n">
         <v>175</v>
       </c>
-      <c r="BB12" t="n">
-        <v>200</v>
-      </c>
       <c r="BC12" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>
@@ -2803,19 +2807,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J14" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.23</v>
@@ -2827,37 +2831,37 @@
         <v>9.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P14" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="T14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="U14" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="X14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
@@ -2866,80 +2870,80 @@
         <v>800</v>
       </c>
       <c r="AB14" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AC14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AD14" t="n">
         <v>32</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AL14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AO14" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="AP14" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AU14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="BB14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -2981,7 +2985,7 @@
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.75</v>
@@ -2996,7 +3000,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3005,10 +3009,10 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3023,7 +3027,7 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -3157,22 +3161,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -3208,13 +3212,13 @@
         <v>6</v>
       </c>
       <c r="X16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y16" t="n">
         <v>10</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3245,7 +3249,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -3254,19 +3258,19 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>301</v>
@@ -3293,7 +3297,7 @@
         <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
         <v>126</v>
@@ -3343,10 +3347,10 @@
         <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>1.83</v>
@@ -3373,10 +3377,10 @@
         <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
         <v>2.25</v>
@@ -3394,7 +3398,7 @@
         <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
         <v>26</v>
@@ -3406,7 +3410,7 @@
         <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3419,7 +3423,7 @@
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
@@ -3437,7 +3441,7 @@
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
         <v>34</v>
@@ -3452,10 +3456,10 @@
         <v>351</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
@@ -3464,13 +3468,13 @@
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -765,10 +765,10 @@
         <v>2.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -807,10 +807,10 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>19</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -846,13 +846,13 @@
         <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.75</v>
@@ -876,7 +876,7 @@
         <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
         <v>9</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -1019,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>29</v>
@@ -1028,10 +1028,10 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1129,10 +1129,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1168,7 +1168,7 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1177,13 +1177,13 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1231,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
@@ -1335,22 +1335,22 @@
         <v>3.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1380,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1395,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1428,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
         <v>41</v>
@@ -1473,40 +1473,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1515,10 +1515,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1572,16 +1572,16 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1593,23 +1593,23 @@
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
@@ -1651,22 +1651,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1693,76 +1693,76 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="n">
         <v>34</v>
       </c>
-      <c r="Y7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>41</v>
-      </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
         <v>12</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP7" t="n">
         <v>26</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1771,7 +1771,7 @@
         <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
@@ -1780,22 +1780,22 @@
         <v>351</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>41</v>
       </c>
       <c r="BC7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="inlineStr"/>
     </row>
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
         <v>1.44</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1855,22 +1855,22 @@
         <v>23</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1897,19 +1897,19 @@
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
@@ -1927,7 +1927,7 @@
         <v>101</v>
       </c>
       <c r="AM8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN8" t="n">
         <v>3.4</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
@@ -1948,7 +1948,7 @@
         <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU8" t="n">
         <v>11</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>51</v>
@@ -1967,7 +1967,7 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB8" t="n">
         <v>251</v>
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="I14" t="n">
         <v>1.04</v>
       </c>
       <c r="J14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2831,37 +2831,37 @@
         <v>9.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P14" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="S14" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="T14" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Y14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="n">
         <v>600</v>
@@ -2870,80 +2870,80 @@
         <v>800</v>
       </c>
       <c r="AB14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC14" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AD14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM14" t="n">
         <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AP14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AU14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AV14" t="n">
         <v>110</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AZ14" t="n">
         <v>14.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="BB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC14" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -2997,10 +2997,10 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3468,7 +3468,7 @@
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -807,10 +807,10 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>19</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -846,13 +846,13 @@
         <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
         <v>21</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -876,16 +876,16 @@
         <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
@@ -894,7 +894,7 @@
         <v>81</v>
       </c>
       <c r="BD2" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -959,16 +959,16 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -980,13 +980,13 @@
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -1034,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1046,7 +1046,7 @@
         <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1061,7 +1061,7 @@
         <v>4.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ3" t="n">
         <v>34</v>
@@ -1073,7 +1073,7 @@
         <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1162,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1183,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1213,13 +1213,13 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1231,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1246,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
         <v>67</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
         <v>2.88</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
         <v>1.32</v>
@@ -1347,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>29</v>
@@ -1374,16 +1374,16 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1398,37 +1398,37 @@
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY5" t="n">
         <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
         <v>41</v>
@@ -1437,7 +1437,7 @@
         <v>51</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1473,52 +1473,52 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
         <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1572,10 +1572,10 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1587,35 +1587,35 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
         <v>7</v>
       </c>
       <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>34</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
       <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
         <v>126</v>
       </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
       <c r="BC6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD6" t="inlineStr"/>
     </row>
@@ -1651,22 +1651,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1693,10 +1693,10 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
         <v>19</v>
@@ -1705,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>51</v>
@@ -1720,52 +1720,52 @@
         <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH7" t="n">
         <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
       </c>
       <c r="AM7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>21</v>
       </c>
-      <c r="AN7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
         <v>3.5</v>
@@ -1783,13 +1783,13 @@
         <v>4</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
         <v>41</v>
@@ -1837,7 +1837,7 @@
         <v>8.5</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
         <v>1.44</v>
@@ -1852,7 +1852,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O8" t="n">
         <v>1.08</v>
@@ -1879,7 +1879,7 @@
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>7.5</v>
@@ -1888,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
@@ -1909,19 +1909,19 @@
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL8" t="n">
         <v>101</v>
@@ -1967,7 +1967,7 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB8" t="n">
         <v>251</v>
@@ -2015,22 +2015,22 @@
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2045,19 +2045,19 @@
         <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2084,28 +2084,28 @@
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
         <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -2117,19 +2117,19 @@
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>81</v>
@@ -2141,10 +2141,10 @@
         <v>5.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
         <v>4.75</v>
@@ -2997,22 +2997,22 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3027,7 +3027,7 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -3045,7 +3045,7 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3060,13 +3060,13 @@
         <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI15" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3161,16 +3161,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>1.91</v>
@@ -3209,10 +3209,10 @@
         <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
@@ -3294,7 +3294,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
         <v>81</v>
@@ -3341,22 +3341,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.14</v>
@@ -3365,16 +3365,16 @@
         <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
         <v>1.67</v>
@@ -3383,22 +3383,22 @@
         <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
         <v>26</v>
@@ -3407,7 +3407,7 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="n">
         <v>5.5</v>
@@ -3416,7 +3416,7 @@
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
@@ -3426,22 +3426,22 @@
         <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
         <v>34</v>
@@ -3462,7 +3462,7 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW17" t="n">
         <v>81</v>
@@ -3471,16 +3471,16 @@
         <v>5</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-18.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>2.38</v>
@@ -768,31 +768,31 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
         <v>17</v>
@@ -801,22 +801,22 @@
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -825,37 +825,37 @@
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -864,25 +864,25 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="n">
         <v>29</v>
@@ -891,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,34 +929,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>2.75</v>
@@ -971,22 +971,22 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
@@ -1013,25 +1013,25 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1049,7 +1049,7 @@
         <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1058,10 +1058,10 @@
         <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
         <v>351</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
         <v>4.5</v>
@@ -1147,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
         <v>1.7</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>23</v>
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1228,10 +1228,10 @@
         <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
@@ -1311,28 +1311,28 @@
         <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>14.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.2</v>
       </c>
       <c r="U5" t="n">
         <v>1.55</v>
@@ -1341,13 +1341,13 @@
         <v>2.15</v>
       </c>
       <c r="W5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>29</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1383,13 +1383,13 @@
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>5</v>
@@ -1473,52 +1473,52 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1572,50 +1572,52 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>21</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>26</v>
-      </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>351</v>
+      </c>
       <c r="AX6" t="n">
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC6" t="n">
         <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>251</v>
       </c>
       <c r="BD6" t="inlineStr"/>
     </row>
@@ -1651,16 +1653,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
@@ -1681,10 +1683,10 @@
         <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -1693,16 +1695,16 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
         <v>19</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1711,10 +1713,10 @@
         <v>51</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>17</v>
@@ -1732,10 +1734,10 @@
         <v>101</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
@@ -1843,7 +1845,7 @@
         <v>1.44</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
         <v>12</v>
@@ -1855,22 +1857,22 @@
         <v>26</v>
       </c>
       <c r="O8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1882,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1894,10 +1896,10 @@
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD8" t="n">
         <v>17</v>
@@ -1915,22 +1917,22 @@
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
       </c>
       <c r="AK8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL8" t="n">
         <v>101</v>
       </c>
       <c r="AM8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>4.75</v>
@@ -1945,10 +1947,10 @@
         <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
         <v>11</v>
@@ -1964,7 +1966,7 @@
         <v>51</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
         <v>301</v>
@@ -1973,7 +1975,7 @@
         <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -2979,22 +2981,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -3009,10 +3011,10 @@
         <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3021,10 +3023,10 @@
         <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
@@ -3072,7 +3074,7 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM15" t="n">
         <v>29</v>
@@ -3114,7 +3116,7 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>34</v>
@@ -3161,22 +3163,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -3203,10 +3205,10 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
         <v>5.5</v>
@@ -3221,7 +3223,7 @@
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
@@ -3233,26 +3235,26 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
@@ -3267,7 +3269,7 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>81</v>
@@ -3288,10 +3290,10 @@
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>41</v>
@@ -3341,40 +3343,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>2.75</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>1.8</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
         <v>1.67</v>
@@ -3416,7 +3418,7 @@
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
@@ -3438,7 +3440,7 @@
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3462,7 +3464,7 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW17" t="n">
         <v>81</v>
@@ -3471,7 +3473,7 @@
         <v>5</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>41</v>
